--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2238.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2238.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.313781774465302</v>
+        <v>1.07729160785675</v>
       </c>
       <c r="B1">
-        <v>2.94026955129899</v>
+        <v>2.404224395751953</v>
       </c>
       <c r="C1">
-        <v>8.224290422171245</v>
+        <v>6.509651660919189</v>
       </c>
       <c r="D1">
-        <v>1.95490039531278</v>
+        <v>2.229686737060547</v>
       </c>
       <c r="E1">
-        <v>1.078153184946463</v>
+        <v>1.282644629478455</v>
       </c>
     </row>
   </sheetData>
